--- a/Random agents (and learning) performance.2.xlsx
+++ b/Random agents (and learning) performance.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lutharsanen\Documents\GitHub\DeepLearning2048\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39988672-683D-4D95-BD44-73DD5319C1B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1901A54D-9009-434D-BC76-904D590FB11B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{18313DEB-2301-465F-AB17-31D94463C195}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{18313DEB-2301-465F-AB17-31D94463C195}"/>
   </bookViews>
   <sheets>
     <sheet name="Q, EPS=1,ALPH=0.5 (random)" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="19">
   <si>
     <t>Training = random agent</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Test = tabular learning off random agent</t>
+  </si>
+  <si>
+    <t>Tabular SARSA off random agent</t>
   </si>
 </sst>
 </file>
@@ -135,10 +138,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -453,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D788537-A92A-4047-A5F3-C5A4DCA7600F}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,31 +564,67 @@
       <c r="A10">
         <v>5</v>
       </c>
+      <c r="B10">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="C10">
+        <v>93.27</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
+      <c r="B11">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="C11">
+        <v>94.99</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
+      <c r="B12">
+        <v>0.06</v>
+      </c>
+      <c r="C12">
+        <v>96.26</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
+      <c r="B13">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="C13">
+        <v>96.46</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
+      <c r="B14">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="C14">
+        <v>94.24</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
+      <c r="B15">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="C15">
+        <v>92.91</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -586,18 +637,20 @@
       </c>
       <c r="B17" s="1">
         <f>SUM(B6:B15)/10</f>
-        <v>1.9400000000000001E-2</v>
+        <v>4.6799999999999994E-2</v>
       </c>
       <c r="C17" s="1">
         <f>SUM(C6:C15)/10</f>
-        <v>38.152000000000001</v>
+        <v>94.965000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1">
+        <v>955.65</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -616,6 +669,17 @@
       </c>
       <c r="D21" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>0.104</v>
+      </c>
+      <c r="C22">
+        <v>106.61</v>
+      </c>
+      <c r="D22">
+        <v>1213.52</v>
       </c>
     </row>
   </sheetData>
@@ -627,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80007AED-A9D3-4724-9DF9-1A6CAD427B80}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,46 +752,100 @@
       <c r="A7">
         <v>2</v>
       </c>
+      <c r="B7">
+        <v>0.05</v>
+      </c>
+      <c r="C7">
+        <v>98.04</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
+      <c r="B8">
+        <v>0.04</v>
+      </c>
+      <c r="C8">
+        <v>92.02</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
+      <c r="B9">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="C9">
+        <v>95.07</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
+      <c r="B10">
+        <v>0.05</v>
+      </c>
+      <c r="C10">
+        <v>95.15</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
+      <c r="B11">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="C11">
+        <v>92.77</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
+      <c r="B12">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="C12">
+        <v>91.85</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
+      <c r="B13">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="C13">
+        <v>93.5</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
+      <c r="B14">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="C14">
+        <v>95.58</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
+      <c r="B15">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="C15">
+        <v>96.12</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -740,18 +858,20 @@
       </c>
       <c r="B17" s="1">
         <f>SUM(B6:B15)/10</f>
-        <v>4.2000000000000006E-3</v>
+        <v>4.4799999999999993E-2</v>
       </c>
       <c r="C17" s="1">
         <f>SUM(C6:C15)/10</f>
-        <v>9.391</v>
+        <v>94.400999999999996</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1">
+        <v>959.35</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -773,9 +893,15 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="B22" s="2">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="C22" s="2">
+        <v>107.6</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1281.7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -787,7 +913,7 @@
   <dimension ref="A1:XFD22"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B16" sqref="B16:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,209 +921,294 @@
     <col min="1" max="1" width="37.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4 16384:16384" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7 16384:16384" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4 16384:16384" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7 16384:16384" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4 16384:16384" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7 16384:16384" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4 16384:16384" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:7 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4 16384:16384" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4 16384:16384" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>0.05</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>97.99</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>994.71</v>
       </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
       <c r="XFD6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4 16384:16384" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:7 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>95.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:4 16384:16384" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>0.05</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>96.47</v>
       </c>
-    </row>
-    <row r="9" spans="1:4 16384:16384" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>95.51</v>
       </c>
-    </row>
-    <row r="10" spans="1:4 16384:16384" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>96.22</v>
       </c>
-    </row>
-    <row r="11" spans="1:4 16384:16384" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>95.37</v>
       </c>
-    </row>
-    <row r="12" spans="1:4 16384:16384" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>98.75</v>
       </c>
-    </row>
-    <row r="13" spans="1:4 16384:16384" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>99</v>
       </c>
-    </row>
-    <row r="14" spans="1:4 16384:16384" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>91.59</v>
       </c>
-    </row>
-    <row r="15" spans="1:4 16384:16384" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>0.04</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>91</v>
       </c>
-    </row>
-    <row r="16" spans="1:4 16384:16384" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="4">
         <f>SUM(B6:B15)/10</f>
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="4">
         <f>SUM(C6:C15)/10</f>
         <v>95.77000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="1">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4">
         <v>966.65</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2">
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5">
         <v>105.54</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="5">
         <v>1234.28</v>
       </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1008,8 +1219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369145DB-3F3D-4012-994A-81E5F9C823A1}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,51 +1266,114 @@
       <c r="A6">
         <v>1</v>
       </c>
+      <c r="B6">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="C6">
+        <v>94.51</v>
+      </c>
+      <c r="D6">
+        <v>962.29</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
+      <c r="B7">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="C7">
+        <v>95.144000000000005</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
+      <c r="B8">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="C8">
+        <v>100.76</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
+      <c r="B9">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="C9">
+        <v>94.67</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
+      <c r="B10">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="C10">
+        <v>97.68</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
+      <c r="B11">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="C11">
+        <v>92.39</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
+      <c r="B12">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="C12">
+        <v>92.39</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
+      <c r="B13">
+        <v>0.04</v>
+      </c>
+      <c r="C13">
+        <v>96.2</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
+      <c r="B14">
+        <v>0.06</v>
+      </c>
+      <c r="C14">
+        <v>98.15</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
+      <c r="B15">
+        <v>0.03</v>
+      </c>
+      <c r="C15">
+        <v>95.38</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1112,25 +1386,27 @@
       </c>
       <c r="B17" s="1">
         <f>SUM(B6:B15)/10</f>
-        <v>0</v>
+        <v>4.6399999999999997E-2</v>
       </c>
       <c r="C17" s="1">
         <f>SUM(C6:C15)/10</f>
-        <v>0</v>
+        <v>95.727400000000003</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1">
+        <v>964.91</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1145,9 +1421,15 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="B22" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="C22" s="2">
+        <v>101.01</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1184.7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
